--- a/河北/导出模板/对比结果模板.xlsx
+++ b/河北/导出模板/对比结果模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="19835" windowHeight="8712"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <r>
       <rPr>
@@ -135,6 +135,12 @@
       </rPr>
       <t>算例所有时刻点数据</t>
     </r>
+  </si>
+  <si>
+    <t>合同详情id</t>
+  </si>
+  <si>
+    <t>合同id</t>
   </si>
 </sst>
 </file>
@@ -1106,10 +1112,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15.6"/>
@@ -1122,7 +1128,7 @@
     <col min="8" max="28" width="8.72727272727273" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1155,6 +1161,12 @@
       </c>
       <c r="K1" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/河北/导出模板/对比结果模板.xlsx
+++ b/河北/导出模板/对比结果模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19835" windowHeight="8712"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -14,17 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>交易场次名称</t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>交易场次名称月份</t>
+  </si>
+  <si>
+    <t>交易场次名称</t>
+  </si>
+  <si>
+    <t>购方</t>
   </si>
   <si>
     <r>
@@ -38,26 +36,10 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月份</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF6A8759"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时段标识配置</t>
-    </r>
+    <t>时段标识配置月份</t>
+  </si>
+  <si>
+    <t>时段标识配置</t>
   </si>
   <si>
     <r>
@@ -146,14 +128,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -177,6 +159,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
@@ -193,6 +203,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -234,14 +252,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,7 +260,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,6 +268,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -265,21 +283,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -294,28 +297,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,13 +312,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,24 +378,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -390,18 +426,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -414,36 +438,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -462,24 +462,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -493,12 +481,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,6 +503,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -553,21 +550,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,148 +608,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -775,19 +757,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -796,52 +778,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -862,7 +844,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1112,23 +1094,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="3" width="8.72727272727273" customWidth="1"/>
-    <col min="4" max="4" width="10.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="9.72727272727273" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.72727272727273" style="2"/>
-    <col min="7" max="7" width="8.72727272727273" style="3"/>
-    <col min="8" max="28" width="8.72727272727273" style="2"/>
+    <col min="4" max="4" width="8.72727272727273" customWidth="1"/>
+    <col min="5" max="5" width="13.1818181818182" customWidth="1"/>
+    <col min="6" max="6" width="10.5454545454545" customWidth="1"/>
+    <col min="7" max="7" width="9.72727272727273" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.72727272727273" style="2"/>
+    <col min="9" max="9" width="8.72727272727273" style="3"/>
+    <col min="10" max="30" width="8.72727272727273" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1141,19 +1124,19 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -1167,6 +1150,12 @@
       </c>
       <c r="M1" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
